--- a/ventas.xlsx
+++ b/ventas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[(&lt;__main__.Producto object at 0x000002413389E110&gt;, 2)]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,12 +482,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[(&lt;__main__.Producto object at 0x000002413389E110&gt;, 998)]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>2025-05-28 22:11:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1002358544</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[(&lt;producto.Producto object at 0x000002B32D1A8B10&gt;, 30)]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-05-29 01:46:19</t>
         </is>
       </c>
     </row>
